--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2131624.39583532</v>
+        <v>2131227.802981642</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275268</v>
+        <v>261098.0247275273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736549</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>186.6164912216291</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>129.1979038341515</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -707,10 +707,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>23.68889996996554</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>112.2470530467422</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.52723991028043</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.57315202520412</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>205.9167494543755</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>178.4491068325882</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>64.92061682659333</v>
+        <v>11.46922410054215</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>91.72693555411081</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>40.02018856699237</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -1142,7 +1142,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>61.7543843344952</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1181,7 +1181,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>213.4043357274717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1269,16 +1269,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>206.089653525047</v>
       </c>
       <c r="W9" t="n">
-        <v>170.5741002858144</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>56.78874461372734</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>140.4622868043479</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
@@ -1433,7 +1433,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>160.6016328259254</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
         <v>276.1762713617116</v>
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>14.01104946873953</v>
+        <v>115.5885891700061</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
@@ -1503,7 +1503,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>204.4572186707307</v>
+        <v>102.8796789694642</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1582,7 +1582,7 @@
         <v>117.4169981442692</v>
       </c>
       <c r="U13" t="n">
-        <v>170.8881716075824</v>
+        <v>170.8881716075825</v>
       </c>
       <c r="V13" t="n">
         <v>144.6977858889529</v>
@@ -1594,7 +1594,7 @@
         <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.3846417114371</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>277.4076971867455</v>
@@ -1622,10 +1622,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>96.03395916229255</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>110.2250058995024</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1689,19 +1689,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>125.5976248327479</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>19.91669456141567</v>
       </c>
       <c r="G15" t="n">
-        <v>101.0969025405662</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.67352487572152</v>
+        <v>11.67352487572035</v>
       </c>
       <c r="T17" t="n">
         <v>48.43219606606971</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>69.85688611863694</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>100.8288750109986</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>17.56842243099247</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>57.16400291224872</v>
       </c>
       <c r="U19" t="n">
-        <v>128.2035988065543</v>
+        <v>110.6351763755619</v>
       </c>
       <c r="V19" t="n">
         <v>84.44479065693238</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>32.54245703829695</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>69.85688611863694</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>110.6351763755619</v>
       </c>
       <c r="V22" t="n">
-        <v>102.0132130879249</v>
+        <v>84.44479065693238</v>
       </c>
       <c r="W22" t="n">
         <v>109.6116767275456</v>
@@ -2305,7 +2305,7 @@
         <v>55.25677872334876</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.13164647941645</v>
+        <v>63.70006891040893</v>
       </c>
     </row>
     <row r="23">
@@ -2448,13 +2448,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>61.51546148052342</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>100.8288750109986</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.56842243099238</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.45792666111243</v>
+        <v>37.88950423012008</v>
       </c>
       <c r="T25" t="n">
         <v>57.16400291224872</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>165.2176111827424</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>98.53784413884614</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655128</v>
@@ -2643,7 +2643,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>118.781368784121</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2792,10 +2792,10 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>153.2289281404242</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
@@ -2849,10 +2849,10 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>98.5378441388463</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
@@ -2871,7 +2871,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459513</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.477371727464</v>
       </c>
     </row>
     <row r="45">
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.33909484544</v>
+        <v>1108.279629591453</v>
       </c>
       <c r="C2" t="n">
-        <v>756.4053361782471</v>
+        <v>726.3458709242607</v>
       </c>
       <c r="D2" t="n">
-        <v>756.4053361782471</v>
+        <v>353.5219061514842</v>
       </c>
       <c r="E2" t="n">
-        <v>567.9038298937733</v>
+        <v>353.5219061514842</v>
       </c>
       <c r="F2" t="n">
-        <v>557.7930432443477</v>
+        <v>343.4111195020586</v>
       </c>
       <c r="G2" t="n">
-        <v>545.7294607389398</v>
+        <v>212.9081863362491</v>
       </c>
       <c r="H2" t="n">
         <v>212.9081863362491</v>
       </c>
       <c r="I2" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="J2" t="n">
-        <v>112.0895318178508</v>
+        <v>112.0895318178507</v>
       </c>
       <c r="K2" t="n">
         <v>352.2299038626335</v>
@@ -4337,43 +4337,43 @@
         <v>700.1152769475798</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.354443200668</v>
+        <v>998.6242839491142</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.685801888383</v>
+        <v>1376.95564263683</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.392480796202</v>
+        <v>1681.960227109664</v>
       </c>
       <c r="P2" t="n">
-        <v>2004.549377252255</v>
+        <v>1910.117123565717</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252255</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="R2" t="n">
-        <v>1913.911090748108</v>
+        <v>1913.911090748107</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.911090748108</v>
+        <v>1726.682115378461</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.911090748108</v>
+        <v>1502.323169109472</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.911090748108</v>
+        <v>1502.323169109472</v>
       </c>
       <c r="V2" t="n">
-        <v>1913.911090748108</v>
+        <v>1502.323169109472</v>
       </c>
       <c r="W2" t="n">
-        <v>1913.911090748108</v>
+        <v>1502.323169109472</v>
       </c>
       <c r="X2" t="n">
-        <v>1531.880950269602</v>
+        <v>1502.323169109472</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.33909484544</v>
+        <v>1502.323169109472</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>781.6282570758879</v>
+        <v>851.02146273715</v>
       </c>
       <c r="C3" t="n">
-        <v>757.7000752880439</v>
+        <v>689.3177899781048</v>
       </c>
       <c r="D3" t="n">
-        <v>618.8614382782559</v>
+        <v>550.4791529683168</v>
       </c>
       <c r="E3" t="n">
-        <v>471.8334283351272</v>
+        <v>403.4511430251881</v>
       </c>
       <c r="F3" t="n">
-        <v>337.1396302850015</v>
+        <v>268.7573449750624</v>
       </c>
       <c r="G3" t="n">
-        <v>208.4111303082861</v>
+        <v>140.028844998347</v>
       </c>
       <c r="H3" t="n">
-        <v>108.4732728549841</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="I3" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="J3" t="n">
-        <v>100.3451340781512</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3451340781512</v>
+        <v>269.5815401052337</v>
       </c>
       <c r="L3" t="n">
-        <v>171.3225530266531</v>
+        <v>635.4033852753494</v>
       </c>
       <c r="M3" t="n">
-        <v>656.3559065368795</v>
+        <v>1120.436738785576</v>
       </c>
       <c r="N3" t="n">
-        <v>1152.481877406813</v>
+        <v>1616.562709655509</v>
       </c>
       <c r="O3" t="n">
-        <v>1544.681828190963</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="P3" t="n">
-        <v>1846.777747466661</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252255</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.765108347201</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="S3" t="n">
-        <v>1791.965621359941</v>
+        <v>1891.168515588878</v>
       </c>
       <c r="T3" t="n">
-        <v>1603.280517525926</v>
+        <v>1891.168515588878</v>
       </c>
       <c r="U3" t="n">
-        <v>1603.280517525926</v>
+        <v>1672.673723187188</v>
       </c>
       <c r="V3" t="n">
-        <v>1374.88489497426</v>
+        <v>1444.278100635522</v>
       </c>
       <c r="W3" t="n">
-        <v>1133.56902620757</v>
+        <v>1202.962231868832</v>
       </c>
       <c r="X3" t="n">
-        <v>1133.56902620757</v>
+        <v>1202.962231868832</v>
       </c>
       <c r="Y3" t="n">
-        <v>941.0476998571488</v>
+        <v>1010.440905518411</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
       <c r="C4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
       <c r="F4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
       <c r="G4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
       <c r="H4" t="n">
-        <v>40.0909875450451</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0909875450451</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="J4" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="K4" t="n">
-        <v>73.69517528968851</v>
+        <v>73.69517528968849</v>
       </c>
       <c r="L4" t="n">
         <v>174.302254689948</v>
       </c>
       <c r="M4" t="n">
-        <v>292.2957608175498</v>
+        <v>292.2957608175497</v>
       </c>
       <c r="N4" t="n">
         <v>410.7181025671501</v>
       </c>
       <c r="O4" t="n">
-        <v>509.1817490628398</v>
+        <v>509.1817490628397</v>
       </c>
       <c r="P4" t="n">
-        <v>572.1502327909776</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.1502327909776</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="R4" t="n">
-        <v>572.1502327909776</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="S4" t="n">
-        <v>572.1502327909776</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="T4" t="n">
-        <v>338.9712796066565</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="U4" t="n">
-        <v>51.78104009575634</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="V4" t="n">
-        <v>40.0909875450451</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="W4" t="n">
-        <v>40.0909875450451</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="X4" t="n">
-        <v>40.0909875450451</v>
+        <v>340.8977686863533</v>
       </c>
       <c r="Y4" t="n">
-        <v>40.0909875450451</v>
+        <v>118.8626098786304</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.837588560966</v>
+        <v>1243.025239301369</v>
       </c>
       <c r="C5" t="n">
-        <v>567.9038298937733</v>
+        <v>861.0914806341759</v>
       </c>
       <c r="D5" t="n">
-        <v>567.9038298937733</v>
+        <v>861.0914806341759</v>
       </c>
       <c r="E5" t="n">
-        <v>567.9038298937733</v>
+        <v>466.3057607402827</v>
       </c>
       <c r="F5" t="n">
-        <v>557.7930432443477</v>
+        <v>456.1949740908571</v>
       </c>
       <c r="G5" t="n">
-        <v>545.7294607389398</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="H5" t="n">
-        <v>212.9081863362491</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="J5" t="n">
-        <v>40.0909875450451</v>
+        <v>112.0895318178507</v>
       </c>
       <c r="K5" t="n">
-        <v>257.499744611081</v>
+        <v>352.2299038626335</v>
       </c>
       <c r="L5" t="n">
-        <v>605.3851176960272</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M5" t="n">
-        <v>998.6242839491151</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N5" t="n">
-        <v>1376.955642636831</v>
+        <v>1376.95564263683</v>
       </c>
       <c r="O5" t="n">
-        <v>1681.960227109665</v>
+        <v>1681.960227109664</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.117123565718</v>
+        <v>1910.117123565717</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252255</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.911090748108</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.911090748108</v>
+        <v>1817.320401882608</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.911090748108</v>
+        <v>1817.320401882608</v>
       </c>
       <c r="U5" t="n">
-        <v>1705.914374127527</v>
+        <v>1817.320401882608</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.914374127527</v>
+        <v>1817.320401882608</v>
       </c>
       <c r="W5" t="n">
-        <v>1343.379443985128</v>
+        <v>1637.068778819388</v>
       </c>
       <c r="X5" t="n">
-        <v>1343.379443985128</v>
+        <v>1637.068778819388</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.837588560966</v>
+        <v>1637.068778819388</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.4037480470892</v>
+        <v>784.7099499969634</v>
       </c>
       <c r="C6" t="n">
-        <v>757.7000752880439</v>
+        <v>623.0062772379181</v>
       </c>
       <c r="D6" t="n">
-        <v>618.8614382782559</v>
+        <v>484.1676402281302</v>
       </c>
       <c r="E6" t="n">
-        <v>471.8334283351272</v>
+        <v>337.1396302850014</v>
       </c>
       <c r="F6" t="n">
-        <v>337.1396302850015</v>
+        <v>337.1396302850014</v>
       </c>
       <c r="G6" t="n">
-        <v>208.4111303082861</v>
+        <v>208.411130308286</v>
       </c>
       <c r="H6" t="n">
         <v>108.4732728549841</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="J6" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="K6" t="n">
-        <v>40.0909875450451</v>
+        <v>269.5815401052337</v>
       </c>
       <c r="L6" t="n">
-        <v>171.3225530266531</v>
+        <v>635.4033852753494</v>
       </c>
       <c r="M6" t="n">
-        <v>656.3559065368795</v>
+        <v>1120.436738785576</v>
       </c>
       <c r="N6" t="n">
-        <v>1152.481877406813</v>
+        <v>1616.562709655509</v>
       </c>
       <c r="O6" t="n">
-        <v>1544.681828190963</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="P6" t="n">
-        <v>1846.777747466661</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252255</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="R6" t="n">
-        <v>2004.549377252255</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="S6" t="n">
-        <v>2004.549377252255</v>
+        <v>2004.549377252254</v>
       </c>
       <c r="T6" t="n">
-        <v>2004.549377252255</v>
+        <v>1815.864273418239</v>
       </c>
       <c r="U6" t="n">
-        <v>1938.972996619332</v>
+        <v>1804.279198569207</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.577374067666</v>
+        <v>1575.883576017541</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.261505300977</v>
+        <v>1334.567707250851</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.344517178771</v>
+        <v>1136.650719128645</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.82319082835</v>
+        <v>944.1293927782242</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.3604273400424</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="C7" t="n">
-        <v>132.7444578017227</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="D7" t="n">
-        <v>132.7444578017227</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="E7" t="n">
-        <v>132.7444578017227</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="F7" t="n">
-        <v>132.7444578017227</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="G7" t="n">
-        <v>132.7444578017227</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="H7" t="n">
-        <v>40.0909875450451</v>
+        <v>184.2940319423666</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="J7" t="n">
-        <v>40.0909875450451</v>
+        <v>40.09098754504508</v>
       </c>
       <c r="K7" t="n">
-        <v>73.69517528968851</v>
+        <v>73.69517528968849</v>
       </c>
       <c r="L7" t="n">
         <v>174.302254689948</v>
       </c>
       <c r="M7" t="n">
-        <v>292.2957608175498</v>
+        <v>292.2957608175497</v>
       </c>
       <c r="N7" t="n">
         <v>410.7181025671501</v>
       </c>
       <c r="O7" t="n">
-        <v>509.1817490628398</v>
+        <v>509.1817490628397</v>
       </c>
       <c r="P7" t="n">
-        <v>572.1502327909776</v>
+        <v>572.1502327909775</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.6128914446666</v>
+        <v>533.6128914446665</v>
       </c>
       <c r="R7" t="n">
-        <v>533.6128914446666</v>
+        <v>384.0911100590447</v>
       </c>
       <c r="S7" t="n">
-        <v>533.6128914446666</v>
+        <v>384.0911100590447</v>
       </c>
       <c r="T7" t="n">
-        <v>533.6128914446666</v>
+        <v>384.0911100590447</v>
       </c>
       <c r="U7" t="n">
-        <v>533.6128914446666</v>
+        <v>384.0911100590447</v>
       </c>
       <c r="V7" t="n">
-        <v>533.6128914446666</v>
+        <v>384.0911100590447</v>
       </c>
       <c r="W7" t="n">
-        <v>533.6128914446666</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="X7" t="n">
-        <v>302.3604273400424</v>
+        <v>343.6666771630928</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.3604273400424</v>
+        <v>343.6666771630928</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.742068589895</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="C8" t="n">
-        <v>831.8083099227024</v>
+        <v>884.0756892677164</v>
       </c>
       <c r="D8" t="n">
-        <v>458.984345149926</v>
+        <v>511.2517244949399</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>116.4660046010468</v>
       </c>
       <c r="F8" t="n">
         <v>54.08783860660719</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>1823.345543186168</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X8" t="n">
-        <v>1823.345543186168</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1607.785608107914</v>
+        <v>1266.009447934909</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4917,13 +4917,13 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="W9" t="n">
-        <v>1080.756459384504</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="X9" t="n">
-        <v>1080.756459384504</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
         <v>1080.756459384504</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127.1947855664981</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="C10" t="n">
-        <v>127.1947855664981</v>
+        <v>347.1051635121177</v>
       </c>
       <c r="D10" t="n">
-        <v>127.1947855664981</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1206.618060567997</v>
+        <v>1072.012534667805</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.618060567997</v>
+        <v>1072.012534667805</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.618060567997</v>
+        <v>1072.012534667805</v>
       </c>
       <c r="E11" t="n">
-        <v>926.4082654298707</v>
+        <v>791.8027395296781</v>
       </c>
       <c r="F11" t="n">
-        <v>626.8329994958074</v>
+        <v>492.2274735956148</v>
       </c>
       <c r="G11" t="n">
-        <v>325.3049377057618</v>
+        <v>190.6994118055691</v>
       </c>
       <c r="H11" t="n">
-        <v>107.0595880588376</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I11" t="n">
         <v>48.81831402339996</v>
       </c>
       <c r="J11" t="n">
-        <v>233.1127221493323</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K11" t="n">
-        <v>585.5489580472417</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L11" t="n">
-        <v>933.4343311321879</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M11" t="n">
-        <v>1326.673497385276</v>
+        <v>1102.081769679022</v>
       </c>
       <c r="N11" t="n">
-        <v>1789.860687304161</v>
+        <v>1565.268959597908</v>
       </c>
       <c r="O11" t="n">
-        <v>2094.865271776995</v>
+        <v>1982.569407923869</v>
       </c>
       <c r="P11" t="n">
-        <v>2323.022168233048</v>
+        <v>2210.726304379922</v>
       </c>
       <c r="Q11" t="n">
         <v>2417.454421919585</v>
@@ -5066,25 +5066,25 @@
         <v>2440.915701169998</v>
       </c>
       <c r="S11" t="n">
-        <v>2368.262650556119</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="T11" t="n">
-        <v>2258.479629042897</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="U11" t="n">
-        <v>2118.170217512657</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="V11" t="n">
-        <v>1895.766868164364</v>
+        <v>2145.859301207826</v>
       </c>
       <c r="W11" t="n">
-        <v>1647.807862777732</v>
+        <v>1897.900295821194</v>
       </c>
       <c r="X11" t="n">
-        <v>1485.583991236393</v>
+        <v>1630.446080098453</v>
       </c>
       <c r="Y11" t="n">
-        <v>1206.618060567997</v>
+        <v>1351.480149430058</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>813.5551497696775</v>
+        <v>916.1587252255024</v>
       </c>
       <c r="C12" t="n">
-        <v>651.8514770106323</v>
+        <v>754.4550524664571</v>
       </c>
       <c r="D12" t="n">
-        <v>513.0128400008443</v>
+        <v>615.6164154566692</v>
       </c>
       <c r="E12" t="n">
-        <v>365.9848300577156</v>
+        <v>468.5884055135404</v>
       </c>
       <c r="F12" t="n">
-        <v>231.2910320075899</v>
+        <v>333.8946074634148</v>
       </c>
       <c r="G12" t="n">
         <v>217.1384567866409</v>
@@ -5118,25 +5118,25 @@
         <v>48.81831402339996</v>
       </c>
       <c r="J12" t="n">
-        <v>109.0724605565061</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K12" t="n">
-        <v>338.5630131166948</v>
+        <v>278.3088665835886</v>
       </c>
       <c r="L12" t="n">
-        <v>704.3848582868104</v>
+        <v>592.5492016912075</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.418211797037</v>
+        <v>1077.582555201434</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.683857920159</v>
+        <v>1588.848201324556</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108707</v>
       </c>
       <c r="P12" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.915701169998</v>
@@ -5151,19 +5151,19 @@
         <v>2039.646841443669</v>
       </c>
       <c r="U12" t="n">
-        <v>1833.124398341921</v>
+        <v>1935.727973797746</v>
       </c>
       <c r="V12" t="n">
-        <v>1604.728775790255</v>
+        <v>1707.33235124608</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.412907023565</v>
+        <v>1466.01648247939</v>
       </c>
       <c r="X12" t="n">
-        <v>1165.49591890136</v>
+        <v>1268.099494357184</v>
       </c>
       <c r="Y12" t="n">
-        <v>972.9745925509385</v>
+        <v>1075.578168006763</v>
       </c>
     </row>
     <row r="13">
@@ -5185,13 +5185,13 @@
         <v>215.4907082247549</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062985</v>
+        <v>177.5859780062984</v>
       </c>
       <c r="G13" t="n">
-        <v>123.2421541299149</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495509</v>
+        <v>78.44543366495505</v>
       </c>
       <c r="I13" t="n">
         <v>48.81831402339996</v>
@@ -5206,10 +5206,10 @@
         <v>461.0550731897135</v>
       </c>
       <c r="M13" t="n">
-        <v>691.3444431704418</v>
+        <v>691.344443170442</v>
       </c>
       <c r="N13" t="n">
-        <v>922.0626487731688</v>
+        <v>922.062648773169</v>
       </c>
       <c r="O13" t="n">
         <v>1132.822159121985</v>
@@ -5221,25 +5221,25 @@
         <v>1382.611922302857</v>
       </c>
       <c r="R13" t="n">
-        <v>1347.666065673001</v>
+        <v>1347.666065673002</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.532227832455</v>
+        <v>1248.532227832456</v>
       </c>
       <c r="T13" t="n">
         <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.314884648767</v>
+        <v>957.3148846487671</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629559</v>
+        <v>811.1555049629561</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361215</v>
+        <v>639.5750282361216</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872636</v>
+        <v>522.8984888872637</v>
       </c>
       <c r="Y13" t="n">
         <v>415.4392548353073</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1464.866100585007</v>
+        <v>1255.7305448325</v>
       </c>
       <c r="C14" t="n">
-        <v>1464.866100585007</v>
+        <v>988.3727109210732</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.618060567997</v>
+        <v>988.3727109210732</v>
       </c>
       <c r="E14" t="n">
-        <v>926.4082654298708</v>
+        <v>708.1629157829465</v>
       </c>
       <c r="F14" t="n">
-        <v>626.8329994958075</v>
+        <v>408.5876498488832</v>
       </c>
       <c r="G14" t="n">
-        <v>325.3049377057619</v>
+        <v>107.0595880588376</v>
       </c>
       <c r="H14" t="n">
-        <v>107.0595880588375</v>
+        <v>107.0595880588376</v>
       </c>
       <c r="I14" t="n">
         <v>48.81831402339996</v>
@@ -5279,16 +5279,16 @@
         <v>233.1127221493323</v>
       </c>
       <c r="K14" t="n">
-        <v>581.5702046756975</v>
+        <v>473.2530941941151</v>
       </c>
       <c r="L14" t="n">
-        <v>1041.75144161377</v>
+        <v>821.1384672790614</v>
       </c>
       <c r="M14" t="n">
-        <v>1434.990607866858</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N14" t="n">
-        <v>1813.321966554574</v>
+        <v>1705.004856072992</v>
       </c>
       <c r="O14" t="n">
         <v>2118.326551027408</v>
@@ -5303,25 +5303,25 @@
         <v>2440.915701169998</v>
       </c>
       <c r="S14" t="n">
-        <v>2368.262650556119</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="T14" t="n">
-        <v>2271.258651402288</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="U14" t="n">
-        <v>2271.258651402288</v>
+        <v>2329.577311372521</v>
       </c>
       <c r="V14" t="n">
-        <v>2271.258651402288</v>
+        <v>2329.577311372521</v>
       </c>
       <c r="W14" t="n">
-        <v>2023.299646015656</v>
+        <v>2081.618305985889</v>
       </c>
       <c r="X14" t="n">
-        <v>2023.299646015656</v>
+        <v>1814.164090263148</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.33371534726</v>
+        <v>1535.198159594752</v>
       </c>
     </row>
     <row r="15">
@@ -5337,16 +5337,16 @@
         <v>639.8791277106907</v>
       </c>
       <c r="D15" t="n">
-        <v>501.0404907009028</v>
+        <v>513.0128400008443</v>
       </c>
       <c r="E15" t="n">
-        <v>354.012480757774</v>
+        <v>365.9848300577156</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3186827076483</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G15" t="n">
-        <v>117.200599333339</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H15" t="n">
         <v>117.200599333339</v>
@@ -5373,7 +5373,7 @@
         <v>2092.88380870431</v>
       </c>
       <c r="P15" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.915701169998</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.4598109066941</v>
+        <v>346.4598109066935</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241407</v>
+        <v>291.4197661241405</v>
       </c>
       <c r="D16" t="n">
-        <v>252.9237977076698</v>
+        <v>252.9237977076696</v>
       </c>
       <c r="E16" t="n">
-        <v>215.4907082247551</v>
+        <v>215.4907082247549</v>
       </c>
       <c r="F16" t="n">
-        <v>177.5859780062985</v>
+        <v>177.5859780062984</v>
       </c>
       <c r="G16" t="n">
-        <v>123.2421541299149</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44543366495512</v>
+        <v>78.44543366495503</v>
       </c>
       <c r="I16" t="n">
         <v>48.81831402339996</v>
@@ -5440,10 +5440,10 @@
         <v>248.1521299363271</v>
       </c>
       <c r="L16" t="n">
-        <v>461.0550731897128</v>
+        <v>461.0550731897133</v>
       </c>
       <c r="M16" t="n">
-        <v>691.3444431704414</v>
+        <v>691.3444431704417</v>
       </c>
       <c r="N16" t="n">
         <v>922.0626487731686</v>
@@ -5458,28 +5458,28 @@
         <v>1382.611922302857</v>
       </c>
       <c r="R16" t="n">
-        <v>1347.666065673002</v>
+        <v>1347.666065673001</v>
       </c>
       <c r="S16" t="n">
-        <v>1248.532227832456</v>
+        <v>1248.532227832455</v>
       </c>
       <c r="T16" t="n">
-        <v>1129.929199403901</v>
+        <v>1129.9291994039</v>
       </c>
       <c r="U16" t="n">
-        <v>957.3148846487671</v>
+        <v>957.3148846487668</v>
       </c>
       <c r="V16" t="n">
-        <v>811.1555049629561</v>
+        <v>811.1555049629558</v>
       </c>
       <c r="W16" t="n">
-        <v>639.5750282361217</v>
+        <v>639.5750282361213</v>
       </c>
       <c r="X16" t="n">
-        <v>522.898488887264</v>
+        <v>522.8984888872634</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.4392548353075</v>
+        <v>415.4392548353069</v>
       </c>
     </row>
     <row r="17">
@@ -5510,43 +5510,43 @@
         <v>48.81831402339996</v>
       </c>
       <c r="I17" t="n">
-        <v>51.38650662096787</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J17" t="n">
-        <v>123.3850508937735</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8079948658842</v>
+        <v>521.9197393959971</v>
       </c>
       <c r="L17" t="n">
-        <v>786.6933679508304</v>
+        <v>869.8051124809433</v>
       </c>
       <c r="M17" t="n">
-        <v>1179.932534203918</v>
+        <v>1263.044278734031</v>
       </c>
       <c r="N17" t="n">
-        <v>1730.210222024461</v>
+        <v>1813.321966554574</v>
       </c>
       <c r="O17" t="n">
-        <v>2035.214806497295</v>
+        <v>2118.326551027408</v>
       </c>
       <c r="P17" t="n">
-        <v>2263.371702953348</v>
+        <v>2346.483447483461</v>
       </c>
       <c r="Q17" t="n">
-        <v>2357.803956639885</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R17" t="n">
         <v>2440.915701169998</v>
       </c>
       <c r="S17" t="n">
-        <v>2429.124261901593</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T17" t="n">
-        <v>2380.202851733846</v>
+        <v>2380.202851733847</v>
       </c>
       <c r="U17" t="n">
-        <v>2300.755051549082</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V17" t="n">
         <v>2139.213313546265</v>
@@ -5555,10 +5555,10 @@
         <v>1952.115919505108</v>
       </c>
       <c r="X17" t="n">
-        <v>1745.523315127842</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.418995804922</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>801.582800469736</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C18" t="n">
-        <v>639.8791277106907</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D18" t="n">
-        <v>501.0404907009028</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E18" t="n">
-        <v>354.012480757774</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F18" t="n">
-        <v>219.3186827076483</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7561714767019</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81831402339996</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I18" t="n">
         <v>48.81831402339996</v>
@@ -5604,13 +5604,13 @@
         <v>1189.418211797037</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.683857920159</v>
+        <v>1588.848201324556</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108707</v>
       </c>
       <c r="P18" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.915701169998</v>
@@ -5628,16 +5628,16 @@
         <v>1821.152049041979</v>
       </c>
       <c r="V18" t="n">
-        <v>1592.756426490313</v>
+        <v>1719.304700546021</v>
       </c>
       <c r="W18" t="n">
-        <v>1351.440557723623</v>
+        <v>1477.988831779331</v>
       </c>
       <c r="X18" t="n">
-        <v>1153.523569601418</v>
+        <v>1280.071843657126</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.0022432509969</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.5641952668267</v>
       </c>
       <c r="I19" t="n">
         <v>48.81831402339996</v>
@@ -5704,19 +5704,19 @@
         <v>484.8639156911822</v>
       </c>
       <c r="U19" t="n">
-        <v>355.365331038097</v>
+        <v>373.1112122815237</v>
       </c>
       <c r="V19" t="n">
-        <v>270.0675626977612</v>
+        <v>287.813443941188</v>
       </c>
       <c r="W19" t="n">
-        <v>159.348697316402</v>
+        <v>177.0945785598287</v>
       </c>
       <c r="X19" t="n">
-        <v>103.5337693130194</v>
+        <v>121.2796505564461</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.93614660653814</v>
+        <v>74.68202784996488</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1102.316769822194</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506589</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580074</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694194</v>
+        <v>446.8685027694196</v>
       </c>
       <c r="G20" t="n">
         <v>206.202052324849</v>
@@ -5747,31 +5747,31 @@
         <v>48.81831402339996</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81831402339996</v>
+        <v>51.38650662096786</v>
       </c>
       <c r="J20" t="n">
-        <v>198.6676228211014</v>
+        <v>123.3850508937735</v>
       </c>
       <c r="K20" t="n">
-        <v>438.8079948658842</v>
+        <v>535.4717520713832</v>
       </c>
       <c r="L20" t="n">
-        <v>786.6933679508304</v>
+        <v>883.3571251563294</v>
       </c>
       <c r="M20" t="n">
-        <v>1351.878863336745</v>
+        <v>1276.596291409417</v>
       </c>
       <c r="N20" t="n">
-        <v>1730.210222024461</v>
+        <v>1654.927650097133</v>
       </c>
       <c r="O20" t="n">
-        <v>2035.214806497295</v>
+        <v>1959.932234569967</v>
       </c>
       <c r="P20" t="n">
-        <v>2263.371702953348</v>
+        <v>2188.08913102602</v>
       </c>
       <c r="Q20" t="n">
-        <v>2357.803956639885</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R20" t="n">
         <v>2440.915701169998</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.582800469736</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C21" t="n">
-        <v>639.8791277106907</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D21" t="n">
-        <v>501.0404907009028</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E21" t="n">
-        <v>354.012480757774</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F21" t="n">
-        <v>219.3186827076483</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7561714767019</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81831402339996</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I21" t="n">
         <v>48.81831402339996</v>
@@ -5838,22 +5838,22 @@
         <v>704.3848582868104</v>
       </c>
       <c r="M21" t="n">
-        <v>1189.418211797037</v>
+        <v>1077.582555201433</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.683857920159</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P21" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.915701169998</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S21" t="n">
         <v>2228.331945277684</v>
@@ -5874,7 +5874,7 @@
         <v>1153.523569601418</v>
       </c>
       <c r="Y21" t="n">
-        <v>961.0022432509969</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>48.81831402339996</v>
       </c>
       <c r="K22" t="n">
-        <v>82.42250176804338</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L22" t="n">
         <v>183.0295811683029</v>
@@ -5944,16 +5944,16 @@
         <v>373.1112122815237</v>
       </c>
       <c r="V22" t="n">
-        <v>270.0675626977612</v>
+        <v>287.813443941188</v>
       </c>
       <c r="W22" t="n">
-        <v>159.348697316402</v>
+        <v>177.0945785598287</v>
       </c>
       <c r="X22" t="n">
-        <v>103.5337693130194</v>
+        <v>121.2796505564461</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.93614660653814</v>
+        <v>56.93614660653813</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>1308.812992388145</v>
       </c>
       <c r="C23" t="n">
-        <v>1102.316769822193</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D23" t="n">
-        <v>904.9303411506587</v>
+        <v>904.9303411506589</v>
       </c>
       <c r="E23" t="n">
-        <v>685.5821573580072</v>
+        <v>685.5821573580074</v>
       </c>
       <c r="F23" t="n">
         <v>446.8685027694194</v>
@@ -5990,37 +5990,37 @@
         <v>292.7631874290325</v>
       </c>
       <c r="K23" t="n">
-        <v>610.7543239987108</v>
+        <v>693.8660685288241</v>
       </c>
       <c r="L23" t="n">
-        <v>958.639697083657</v>
+        <v>1041.75144161377</v>
       </c>
       <c r="M23" t="n">
-        <v>1351.878863336745</v>
+        <v>1434.990607866858</v>
       </c>
       <c r="N23" t="n">
-        <v>1730.210222024461</v>
+        <v>1813.321966554574</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.214806497295</v>
+        <v>2118.326551027408</v>
       </c>
       <c r="P23" t="n">
-        <v>2263.371702953348</v>
+        <v>2346.483447483461</v>
       </c>
       <c r="Q23" t="n">
-        <v>2357.803956639885</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R23" t="n">
         <v>2440.915701169998</v>
       </c>
       <c r="S23" t="n">
-        <v>2429.124261901593</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733846</v>
+        <v>2380.202851733847</v>
       </c>
       <c r="U23" t="n">
-        <v>2300.755051549082</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V23" t="n">
         <v>2139.213313546265</v>
@@ -6075,31 +6075,31 @@
         <v>704.3848582868104</v>
       </c>
       <c r="M24" t="n">
-        <v>1189.418211797037</v>
+        <v>1077.582555201434</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.683857920159</v>
+        <v>1588.848201324556</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108707</v>
       </c>
       <c r="P24" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.915701169998</v>
       </c>
       <c r="R24" t="n">
-        <v>2381.131432264943</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S24" t="n">
         <v>2228.331945277684</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U24" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V24" t="n">
         <v>1719.304700546021</v>
@@ -6148,7 +6148,7 @@
         <v>48.81831402339996</v>
       </c>
       <c r="K25" t="n">
-        <v>82.42250176804336</v>
+        <v>82.42250176804338</v>
       </c>
       <c r="L25" t="n">
         <v>183.0295811683029</v>
@@ -6166,10 +6166,10 @@
         <v>580.8775592693324</v>
       </c>
       <c r="Q25" t="n">
-        <v>580.8775592693324</v>
+        <v>563.1316780259058</v>
       </c>
       <c r="R25" t="n">
-        <v>580.8775592693324</v>
+        <v>563.1316780259058</v>
       </c>
       <c r="S25" t="n">
         <v>524.859451530835</v>
@@ -6190,7 +6190,7 @@
         <v>103.5337693130194</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.93614660653813</v>
+        <v>56.93614660653814</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.233621313474</v>
+        <v>1484.985581296464</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.875787402048</v>
+        <v>1217.627747385038</v>
       </c>
       <c r="D26" t="n">
         <v>1217.627747385038</v>
       </c>
       <c r="E26" t="n">
-        <v>937.4179522469116</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="F26" t="n">
-        <v>637.8426863128483</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="G26" t="n">
-        <v>336.3146245228027</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H26" t="n">
         <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044059</v>
+        <v>59.82800084044062</v>
       </c>
       <c r="J26" t="n">
         <v>244.1224089663729</v>
@@ -6233,43 +6233,43 @@
         <v>1056.739881802355</v>
       </c>
       <c r="M26" t="n">
-        <v>1512.83021405597</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N26" t="n">
-        <v>2003.457436596812</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922773</v>
+        <v>2420.757884922775</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231953</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q26" t="n">
-        <v>2967.938762771617</v>
+        <v>2967.938762771618</v>
       </c>
       <c r="R26" t="n">
-        <v>2991.40004202203</v>
+        <v>2991.400042022031</v>
       </c>
       <c r="S26" t="n">
-        <v>2918.74699140815</v>
+        <v>2918.746991408151</v>
       </c>
       <c r="T26" t="n">
-        <v>2808.963969894927</v>
+        <v>2808.963969894929</v>
       </c>
       <c r="U26" t="n">
-        <v>2668.654558364688</v>
+        <v>2668.654558364689</v>
       </c>
       <c r="V26" t="n">
-        <v>2668.654558364688</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W26" t="n">
-        <v>2569.121382466863</v>
+        <v>2198.292203629764</v>
       </c>
       <c r="X26" t="n">
-        <v>2301.667166744123</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y26" t="n">
-        <v>2022.701236075727</v>
+        <v>1651.872057238628</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.1407613424846</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C27" t="n">
-        <v>777.4370885834393</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D27" t="n">
-        <v>638.5984515736513</v>
+        <v>623.885834113547</v>
       </c>
       <c r="E27" t="n">
-        <v>491.5704416305226</v>
+        <v>476.8578241704183</v>
       </c>
       <c r="F27" t="n">
-        <v>356.8766435803969</v>
+        <v>356.8766435803971</v>
       </c>
       <c r="G27" t="n">
-        <v>228.1481436036815</v>
+        <v>228.1481436036816</v>
       </c>
       <c r="H27" t="n">
         <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044059</v>
+        <v>59.82800084044062</v>
       </c>
       <c r="J27" t="n">
-        <v>120.0821473735467</v>
+        <v>120.0821473735468</v>
       </c>
       <c r="K27" t="n">
         <v>349.5726999337354</v>
@@ -6327,28 +6327,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S27" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T27" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U27" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V27" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W27" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y27" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237348</v>
+        <v>357.4694977237345</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411814</v>
+        <v>302.4294529411813</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247106</v>
+        <v>263.9334845247104</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417959</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F28" t="n">
         <v>188.5956648233391</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469555</v>
+        <v>134.2518409469556</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199575</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044059</v>
+        <v>59.82800084044062</v>
       </c>
       <c r="J28" t="n">
         <v>113.2617651555979</v>
       </c>
       <c r="K28" t="n">
-        <v>259.161816753368</v>
+        <v>259.1618167533682</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067542</v>
+        <v>472.0647600067545</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874826</v>
+        <v>702.3541299874828</v>
       </c>
       <c r="N28" t="n">
         <v>933.0723355902098</v>
@@ -6400,7 +6400,7 @@
         <v>1143.831845939026</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.096193520291</v>
+        <v>1319.09619352029</v>
       </c>
       <c r="Q28" t="n">
         <v>1393.621609119898</v>
@@ -6424,10 +6424,10 @@
         <v>650.5847150531624</v>
       </c>
       <c r="X28" t="n">
-        <v>533.9081757043047</v>
+        <v>533.9081757043045</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523482</v>
+        <v>426.4489416523479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1743.233621313474</v>
+        <v>1372.404442476376</v>
       </c>
       <c r="C29" t="n">
-        <v>1475.875787402048</v>
+        <v>1217.627747385038</v>
       </c>
       <c r="D29" t="n">
         <v>1217.627747385038</v>
       </c>
       <c r="E29" t="n">
-        <v>937.4179522469109</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="F29" t="n">
-        <v>637.8426863128476</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="G29" t="n">
-        <v>336.314624522802</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H29" t="n">
         <v>118.0692748758782</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044059</v>
+        <v>59.82800084044062</v>
       </c>
       <c r="J29" t="n">
         <v>244.1224089663729</v>
@@ -6476,37 +6476,37 @@
         <v>2052.902134449412</v>
       </c>
       <c r="O29" t="n">
-        <v>2420.757884922773</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P29" t="n">
-        <v>2761.210645231953</v>
+        <v>2784.671924482367</v>
       </c>
       <c r="Q29" t="n">
-        <v>2967.938762771617</v>
+        <v>2991.400042022031</v>
       </c>
       <c r="R29" t="n">
-        <v>2991.40004202203</v>
+        <v>2991.400042022031</v>
       </c>
       <c r="S29" t="n">
-        <v>2918.74699140815</v>
+        <v>2918.746991408151</v>
       </c>
       <c r="T29" t="n">
-        <v>2808.963969894927</v>
+        <v>2808.963969894929</v>
       </c>
       <c r="U29" t="n">
-        <v>2668.654558364688</v>
+        <v>2668.654558364689</v>
       </c>
       <c r="V29" t="n">
-        <v>2569.121382466863</v>
+        <v>2446.251209016397</v>
       </c>
       <c r="W29" t="n">
-        <v>2569.121382466863</v>
+        <v>2198.292203629764</v>
       </c>
       <c r="X29" t="n">
-        <v>2301.667166744122</v>
+        <v>1930.837987907024</v>
       </c>
       <c r="Y29" t="n">
-        <v>2022.701236075727</v>
+        <v>1651.872057238628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.1407613424846</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C30" t="n">
-        <v>777.4370885834393</v>
+        <v>777.4370885834395</v>
       </c>
       <c r="D30" t="n">
-        <v>638.5984515736513</v>
+        <v>638.5984515736516</v>
       </c>
       <c r="E30" t="n">
-        <v>491.5704416305226</v>
+        <v>491.5704416305227</v>
       </c>
       <c r="F30" t="n">
-        <v>356.8766435803969</v>
+        <v>356.8766435803971</v>
       </c>
       <c r="G30" t="n">
-        <v>228.1481436036815</v>
+        <v>228.1481436036816</v>
       </c>
       <c r="H30" t="n">
         <v>128.2102861503796</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044059</v>
+        <v>59.82800084044062</v>
       </c>
       <c r="J30" t="n">
-        <v>120.0821473735467</v>
+        <v>120.0821473735468</v>
       </c>
       <c r="K30" t="n">
         <v>349.5726999337354</v>
@@ -6564,28 +6564,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R30" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T30" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U30" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V30" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W30" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y30" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="31">
@@ -6613,31 +6613,31 @@
         <v>134.2518409469556</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199568</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044059</v>
+        <v>59.82800084044062</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555979</v>
+        <v>113.2617651555981</v>
       </c>
       <c r="K31" t="n">
-        <v>259.1618167533682</v>
+        <v>259.1618167533684</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067543</v>
+        <v>472.0647600067545</v>
       </c>
       <c r="M31" t="n">
-        <v>702.3541299874826</v>
+        <v>702.3541299874828</v>
       </c>
       <c r="N31" t="n">
-        <v>933.0723355902096</v>
+        <v>933.0723355902098</v>
       </c>
       <c r="O31" t="n">
         <v>1143.831845939026</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.09619352029</v>
+        <v>1319.096193520291</v>
       </c>
       <c r="Q31" t="n">
         <v>1393.621609119898</v>
@@ -6652,16 +6652,16 @@
         <v>1140.938886220942</v>
       </c>
       <c r="U31" t="n">
-        <v>968.3245714658079</v>
+        <v>968.3245714658078</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1651917799969</v>
+        <v>822.1651917799968</v>
       </c>
       <c r="W31" t="n">
-        <v>650.5847150531624</v>
+        <v>650.5847150531623</v>
       </c>
       <c r="X31" t="n">
-        <v>533.9081757043045</v>
+        <v>533.9081757043044</v>
       </c>
       <c r="Y31" t="n">
         <v>426.4489416523479</v>
@@ -6698,10 +6698,10 @@
         <v>57.89473228428648</v>
       </c>
       <c r="J32" t="n">
-        <v>272.6087875609313</v>
+        <v>129.8932765570921</v>
       </c>
       <c r="K32" t="n">
-        <v>512.7491596057141</v>
+        <v>370.0336486018749</v>
       </c>
       <c r="L32" t="n">
         <v>860.6345326906603</v>
@@ -6716,10 +6716,10 @@
         <v>2365.356175115815</v>
       </c>
       <c r="P32" t="n">
-        <v>2736.228582575708</v>
+        <v>2657.588849523947</v>
       </c>
       <c r="Q32" t="n">
-        <v>2840.855687813199</v>
+        <v>2894.736614214324</v>
       </c>
       <c r="R32" t="n">
         <v>2894.736614214324</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.2074927863306</v>
+        <v>922.4948753262258</v>
       </c>
       <c r="C33" t="n">
-        <v>775.5038200272853</v>
+        <v>760.7912025671806</v>
       </c>
       <c r="D33" t="n">
-        <v>636.6651830174974</v>
+        <v>621.9525655573926</v>
       </c>
       <c r="E33" t="n">
-        <v>489.6371730743685</v>
+        <v>474.9245556142639</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9433750242429</v>
+        <v>340.2307575641382</v>
       </c>
       <c r="G33" t="n">
-        <v>226.2148750475274</v>
+        <v>211.5022575874228</v>
       </c>
       <c r="H33" t="n">
-        <v>126.2770175942255</v>
+        <v>111.5644001341208</v>
       </c>
       <c r="I33" t="n">
         <v>57.89473228428648</v>
@@ -6801,28 +6801,28 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2516.756124581538</v>
+        <v>2502.043507121433</v>
       </c>
       <c r="S33" t="n">
-        <v>2363.956637594279</v>
+        <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2175.271533760264</v>
+        <v>2160.558916300159</v>
       </c>
       <c r="U33" t="n">
-        <v>1956.776741358574</v>
+        <v>1942.064123898469</v>
       </c>
       <c r="V33" t="n">
-        <v>1728.381118806908</v>
+        <v>1713.668501346803</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.065250040218</v>
+        <v>1472.352632580113</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.148261918013</v>
+        <v>1274.435644457908</v>
       </c>
       <c r="Y33" t="n">
-        <v>1096.626935567592</v>
+        <v>1081.914318107487</v>
       </c>
     </row>
     <row r="34">
@@ -6865,13 +6865,13 @@
         <v>192.1059994291894</v>
       </c>
       <c r="M34" t="n">
-        <v>368.9868371059493</v>
+        <v>310.0995055567911</v>
       </c>
       <c r="N34" t="n">
-        <v>487.4091788555497</v>
+        <v>428.5218473063915</v>
       </c>
       <c r="O34" t="n">
-        <v>728.5883363550786</v>
+        <v>585.8728253512394</v>
       </c>
       <c r="P34" t="n">
         <v>791.5568200832164</v>
@@ -6935,25 +6935,25 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.364130017708</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1482.695488705424</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091314</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208573</v>
@@ -7047,19 +7047,19 @@
         <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F37" t="n">
         <v>52.21328648670345</v>
@@ -7096,49 +7096,49 @@
         <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>113.0021462133981</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>213.6092256136577</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>331.6027317412594</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>450.0250734908598</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479474</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927301</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776764</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7315,37 +7315,37 @@
         <v>65.54268635500837</v>
       </c>
       <c r="E40" t="n">
-        <v>65.54268635500837</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F40" t="n">
-        <v>65.54268635500837</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="G40" t="n">
-        <v>64.43007423039064</v>
+        <v>79.91381386609162</v>
       </c>
       <c r="H40" t="n">
-        <v>64.43007423039064</v>
+        <v>88.18045877629027</v>
       </c>
       <c r="I40" t="n">
-        <v>64.43007423039064</v>
+        <v>88.18045877629027</v>
       </c>
       <c r="J40" t="n">
-        <v>64.43007423039064</v>
+        <v>88.18045877629027</v>
       </c>
       <c r="K40" t="n">
-        <v>98.03426197503406</v>
+        <v>121.7846465209337</v>
       </c>
       <c r="L40" t="n">
-        <v>198.6413413752936</v>
+        <v>222.3917259211932</v>
       </c>
       <c r="M40" t="n">
-        <v>316.6348475028953</v>
+        <v>340.3852320487949</v>
       </c>
       <c r="N40" t="n">
-        <v>435.0571892524957</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>533.5208357481854</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
         <v>628.266068145054</v>
@@ -7409,28 +7409,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1473.475434912829</v>
+        <v>1384.640850310114</v>
       </c>
       <c r="N41" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926717</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7573,19 +7573,19 @@
         <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
         <v>629.3786802696717</v>
@@ -7646,28 +7646,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M44" t="n">
-        <v>1144.539885930764</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N44" t="n">
-        <v>1522.87124461848</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>1827.875829091314</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2220.500500038399</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583245</v>
@@ -7813,16 +7813,16 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q46" t="n">
         <v>629.3786802696717</v>
@@ -7985,19 +7985,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>488.6805639936585</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>494.7393209294321</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>184.269796145392</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>607.8524853807721</v>
+        <v>607.8524853807719</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>507.7651734563084</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>398.4278090912547</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>472.8639721885556</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8295,25 +8295,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>245.1325704212568</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>607.8524853807721</v>
+        <v>607.8524853807719</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>507.7651734563084</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8544,13 +8544,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>294.5927905918182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,13 +8766,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>429.9899134778335</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.1351643640751</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>301.0362895393898</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.1351643640751</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>510.1797769540913</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.1351643640751</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>492.4512731824713</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.1351643640751</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9723,7 +9723,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>492.4512731824717</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.1351643640747</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>264.6842555723119</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>75.60060934610718</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>104.1780407395875</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
-        <v>12.65123213579763</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>28.68131151543481</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>111.4553274318878</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24500,10 +24500,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>146.9415711939201</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>111.4553274318878</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24737,10 +24737,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>121.641471715963</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>768541.1337882184</v>
+        <v>768541.1337882186</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768541.1337882184</v>
+        <v>768541.1337882186</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582818</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="C2" t="n">
         <v>556527.4438582816</v>
@@ -26320,13 +26320,13 @@
         <v>556527.4438582814</v>
       </c>
       <c r="E2" t="n">
-        <v>504519.1460051842</v>
+        <v>504519.1460051844</v>
       </c>
       <c r="F2" t="n">
-        <v>504519.1460051842</v>
+        <v>504519.1460051843</v>
       </c>
       <c r="G2" t="n">
-        <v>556527.4438582818</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="H2" t="n">
         <v>556527.4438582819</v>
@@ -26335,25 +26335,25 @@
         <v>556527.4438582817</v>
       </c>
       <c r="J2" t="n">
-        <v>535340.8974667002</v>
+        <v>535340.8974666997</v>
       </c>
       <c r="K2" t="n">
-        <v>535340.8974667005</v>
+        <v>535340.8974667003</v>
       </c>
       <c r="L2" t="n">
-        <v>556527.4438582809</v>
+        <v>556527.4438582812</v>
       </c>
       <c r="M2" t="n">
         <v>556527.4438582814</v>
       </c>
       <c r="N2" t="n">
-        <v>556527.4438582812</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="O2" t="n">
-        <v>556527.4438582815</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="P2" t="n">
-        <v>556527.4438582812</v>
+        <v>556527.4438582814</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.6502382269</v>
+        <v>167942.6502382268</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144976951</v>
+        <v>7506.640144977021</v>
       </c>
       <c r="E3" t="n">
         <v>116101.0852352526</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561639</v>
+        <v>48202.3961856164</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>209669.0467558702</v>
+        <v>209669.0467558701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669722</v>
+        <v>72783.92923669724</v>
       </c>
       <c r="M3" t="n">
         <v>17577.58665631773</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.7362209506</v>
+        <v>42541.73622095059</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203200.5134708788</v>
+        <v>203200.5134708789</v>
       </c>
       <c r="C4" t="n">
-        <v>203200.5134708788</v>
+        <v>203200.5134708789</v>
       </c>
       <c r="D4" t="n">
         <v>196979.4332140583</v>
@@ -26433,31 +26433,31 @@
         <v>189725.4452326118</v>
       </c>
       <c r="H4" t="n">
+        <v>189725.4452326117</v>
+      </c>
+      <c r="I4" t="n">
         <v>189725.4452326118</v>
       </c>
-      <c r="I4" t="n">
-        <v>189725.4452326117</v>
-      </c>
       <c r="J4" t="n">
-        <v>171301.1837600968</v>
+        <v>171301.1837600969</v>
       </c>
       <c r="K4" t="n">
-        <v>171301.1837600968</v>
+        <v>171301.1837600969</v>
       </c>
       <c r="L4" t="n">
         <v>187728.3140756456</v>
       </c>
       <c r="M4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="N4" t="n">
         <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="P4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64096.75053423428</v>
+        <v>64096.75053423426</v>
       </c>
       <c r="C5" t="n">
-        <v>64096.75053423428</v>
+        <v>64096.75053423426</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26479,22 +26479,22 @@
         <v>46637.87924189357</v>
       </c>
       <c r="F5" t="n">
-        <v>46637.87924189358</v>
+        <v>46637.87924189357</v>
       </c>
       <c r="G5" t="n">
         <v>51703.28829805431</v>
       </c>
       <c r="H5" t="n">
+        <v>51703.28829805429</v>
+      </c>
+      <c r="I5" t="n">
         <v>51703.28829805431</v>
       </c>
-      <c r="I5" t="n">
-        <v>51703.28829805429</v>
-      </c>
       <c r="J5" t="n">
-        <v>55005.24122284444</v>
+        <v>55005.24122284447</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284444</v>
+        <v>55005.24122284447</v>
       </c>
       <c r="L5" t="n">
         <v>56119.13824775646</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121287.5296149419</v>
+        <v>121287.5296149417</v>
       </c>
       <c r="C6" t="n">
-        <v>289230.1798531685</v>
+        <v>289230.1798531684</v>
       </c>
       <c r="D6" t="n">
-        <v>286475.3358623347</v>
+        <v>286475.3358623346</v>
       </c>
       <c r="E6" t="n">
-        <v>192749.1323225506</v>
+        <v>192569.7933644367</v>
       </c>
       <c r="F6" t="n">
-        <v>308850.2175578031</v>
+        <v>308670.8785996892</v>
       </c>
       <c r="G6" t="n">
-        <v>266896.3141419994</v>
+        <v>266896.3141419992</v>
       </c>
       <c r="H6" t="n">
-        <v>315098.7103276158</v>
+        <v>315098.7103276159</v>
       </c>
       <c r="I6" t="n">
         <v>315098.7103276157</v>
       </c>
       <c r="J6" t="n">
-        <v>99365.42572788872</v>
+        <v>99292.36867136555</v>
       </c>
       <c r="K6" t="n">
-        <v>309034.4724837593</v>
+        <v>308961.4154272362</v>
       </c>
       <c r="L6" t="n">
-        <v>239896.0622981816</v>
+        <v>239896.062298182</v>
       </c>
       <c r="M6" t="n">
         <v>298844.0548130937</v>
       </c>
       <c r="N6" t="n">
-        <v>316421.6414694113</v>
+        <v>316421.6414694117</v>
       </c>
       <c r="O6" t="n">
         <v>273879.9052484609</v>
       </c>
       <c r="P6" t="n">
-        <v>316421.6414694113</v>
+        <v>316421.6414694114</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130637</v>
+        <v>501.1373443130635</v>
       </c>
       <c r="C4" t="n">
-        <v>501.1373443130637</v>
+        <v>501.1373443130635</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26805,16 +26805,16 @@
         <v>610.2289252924995</v>
       </c>
       <c r="H4" t="n">
+        <v>610.2289252924994</v>
+      </c>
+      <c r="I4" t="n">
         <v>610.2289252924995</v>
       </c>
-      <c r="I4" t="n">
-        <v>610.2289252924994</v>
-      </c>
       <c r="J4" t="n">
-        <v>747.8500105055074</v>
+        <v>747.8500105055077</v>
       </c>
       <c r="K4" t="n">
-        <v>747.8500105055074</v>
+        <v>747.8500105055077</v>
       </c>
       <c r="L4" t="n">
         <v>723.6841535535809</v>
@@ -26917,10 +26917,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202048</v>
+        <v>60.2529952320205</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618825</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587153</v>
+        <v>90.97991154587154</v>
       </c>
       <c r="M2" t="n">
         <v>21.97198332039716</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618825</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130637</v>
+        <v>501.1373443130635</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192657</v>
+        <v>24.1658569519268</v>
       </c>
       <c r="E4" t="n">
         <v>84.9257240275092</v>
@@ -27154,10 +27154,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202048</v>
+        <v>60.2529952320205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618825</v>
+        <v>53.17717027618824</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.1373443130637</v>
+        <v>501.1373443130635</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192657</v>
+        <v>24.1658569519268</v>
       </c>
       <c r="M4" t="n">
         <v>84.9257240275092</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.2213714733251</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>282.7450428462024</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27442,10 +27442,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>136.3977360614893</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.0244390706449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>139.2516788582385</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>246.5547993719575</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>46.4197334687704</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>180.4604740083867</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>151.3892276510796</v>
+        <v>204.8406203771308</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27789,10 +27789,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>66.0519832144081</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27834,10 +27834,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>243.2746489007825</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>348.2552944484362</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27913,13 +27913,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.2021011424486</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27989,16 +27989,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>20.02201280110239</v>
       </c>
       <c r="W9" t="n">
-        <v>68.32860979320861</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>124.9310703838087</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28026,7 +28026,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>73.46009459787302</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28059,10 +28059,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28111,10 +28111,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,13 +28126,13 @@
         <v>85.71296083956537</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R11" t="n">
         <v>113.4301655082087</v>
@@ -28181,49 +28181,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>11.85262580694213</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>11.85262580694223</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28351,19 +28351,19 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
-        <v>109.4112227086692</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>109.4112227086687</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -28409,19 +28409,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11.85262580694217</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G15" t="n">
-        <v>26.34431243638201</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28582,13 +28582,13 @@
         <v>173.6831607402292</v>
       </c>
       <c r="I17" t="n">
-        <v>173.6831607402292</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>76.04300194679578</v>
+        <v>162.5883929848573</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.6831607402292</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>173.6831607402292</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>57.58432885831132</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>125.2827913151508</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>125.1925915223558</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28776,7 +28776,7 @@
         <v>173.6831607402292</v>
       </c>
       <c r="U19" t="n">
-        <v>156.1147383092368</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V19" t="n">
         <v>173.6831607402292</v>
@@ -28819,19 +28819,19 @@
         <v>173.6831607402292</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="J20" t="n">
-        <v>78.63713588373312</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>173.6831607402292</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,10 +28843,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>159.9942590479195</v>
       </c>
       <c r="R20" t="n">
-        <v>173.6831607402292</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>173.6831607402292</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>125.2827913151513</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>57.58432885831132</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>173.6831607402292</v>
       </c>
       <c r="V22" t="n">
-        <v>156.1147383092368</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W22" t="n">
         <v>173.6831607402292</v>
@@ -29025,7 +29025,7 @@
         <v>173.6831607402292</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.6831607402292</v>
+        <v>156.1147383092367</v>
       </c>
     </row>
     <row r="23">
@@ -29062,7 +29062,7 @@
         <v>173.6831607402292</v>
       </c>
       <c r="K23" t="n">
-        <v>78.63713588373284</v>
+        <v>162.5883929848574</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.6831607402292</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>173.6831607402292</v>
@@ -29168,13 +29168,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>125.2827913151512</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>125.2827913151508</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>20.58354550185547</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>156.1147383092369</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T25" t="n">
         <v>173.6831607402292</v>
@@ -29305,13 +29305,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>63.48602626315829</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626316028</v>
       </c>
       <c r="P26" t="n">
         <v>113.4301655082087</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29548,16 +29548,16 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>63.48602626315841</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082087</v>
+        <v>87.18428813226376</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>14.5654912855035</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29770,13 +29770,13 @@
         <v>144.1570818220598</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>144.1570818220598</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>144.1570818220598</v>
@@ -29788,13 +29788,13 @@
         <v>144.1570818220598</v>
       </c>
       <c r="P32" t="n">
+        <v>64.72300803240279</v>
+      </c>
+      <c r="Q32" t="n">
         <v>144.1570818220598</v>
       </c>
-      <c r="Q32" t="n">
-        <v>10.29782984944841</v>
-      </c>
       <c r="R32" t="n">
-        <v>144.1570818220598</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>144.1570818220598</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29937,16 +29937,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>59.48215307995778</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>59.48215307995775</v>
+      </c>
+      <c r="P34" t="n">
         <v>144.1570818220598</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>144.1570818220598</v>
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30168,13 +30168,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>28.58311525926162</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,10 +30244,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.58157162934948</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,16 +30259,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30387,7 +30387,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30396,7 +30396,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30414,13 +30414,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>8.107438507910302</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>32.09772592801089</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30481,16 +30481,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
-        <v>40.5815716293493</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>116.9787331327004</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,10 +30502,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30718,7 +30718,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,22 +30727,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40.58157162934947</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34705,19 +34705,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>301.5242494964994</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>307.7845241493116</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>71.69436257424425</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1373443130637</v>
+        <v>501.1373443130635</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>391.9057248451973</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>219.604805117208</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>286.4658580163255</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>132.5571368501091</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>501.1373443130637</v>
+        <v>501.1373443130635</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>391.9057248451973</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35264,13 +35264,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>178.7333419807071</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35422,13 +35422,13 @@
         <v>467.8658484029146</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
         <v>23.69826186910355</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233491</v>
+        <v>317.4144799066858</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.39997291918264</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>351.9772550771366</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>417.4966615701172</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
@@ -35741,10 +35741,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>192.1820835152465</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.39997291918264</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.594133936937283</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>318.6090343152632</v>
+        <v>405.1544253533247</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112404</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>403.464635886383</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.39997291918264</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,19 +36115,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.594133936937283</v>
       </c>
       <c r="J20" t="n">
-        <v>151.3629381794964</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>416.2491931086967</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>570.8944397837524</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36139,10 +36139,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>255.3803738828053</v>
       </c>
       <c r="R20" t="n">
-        <v>83.95125710112404</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>376.9673706208314</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.39997291918264</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>246.4089630359925</v>
       </c>
       <c r="K23" t="n">
-        <v>321.2031682522003</v>
+        <v>405.1544253533249</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>83.95125710112404</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>376.9673706208318</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.39997291918218</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>460.6973053066815</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>371.5714651246087</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>371.5714651246068</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>317.6457997040347</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.8828841178231</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>495.5564485745307</v>
       </c>
       <c r="M32" t="n">
         <v>541.368360865583</v>
@@ -37084,13 +37084,13 @@
         <v>452.2425206835082</v>
       </c>
       <c r="P32" t="n">
-        <v>374.6185933938307</v>
+        <v>295.1845196041737</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.6839446843343</v>
+        <v>239.5431966569456</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4251781829546</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>178.667512804808</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>243.6153106055847</v>
+        <v>158.9403818634827</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>207.7616108403808</v>
       </c>
       <c r="Q34" t="n">
         <v>106.0051138892119</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,13 +37318,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.52673924374992</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251128</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>14.58789090194205</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6185270197983</v>
+        <v>127.7259655277087</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>95.70225494633189</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762236</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37798,10 +37798,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,22 +38023,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>437.7928506728726</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
